--- a/branches/release-candidate/StructureDefinition-ST.xlsx
+++ b/branches/release-candidate/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:46:48+00:00</t>
+    <t>2024-11-19T08:07:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
-    <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>
+    <t>Message Structure eHealth (message-structure@ehealth.fgov.be(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
